--- a/Output_testing/R1_201907/Country/HKD/MN/BELGIUM_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BELGIUM_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>11957.569259</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>64.60752953066449</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>11205.752443</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>62.72103490281579</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>13353.474437</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>64.09497989639816</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>6608.116777</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>61.00937551444908</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-15.59959294929247</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1688.510018</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>9.123130168671166</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>1909.560018</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>10.68822295934416</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>2340.305532</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>11.23316907016665</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1555.965828</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>14.36543976016099</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>31.36727121414273</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>464.755411</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>2.511103911701676</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>505.17012</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.827547091509457</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>460.7067</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.211333598154544</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>310.810661</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>2.86955648193793</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>32.72857569610388</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>292.800417</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.582019821769395</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>285.762474</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.59947475163663</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>380.411977</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.825929134263716</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>245.340094</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.265100092615424</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>40.36549951450228</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>222.798508</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.203794924638537</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>230.278793</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.288920515297813</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>214.020913</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.027273177543567</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>170.184195</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.57122396739679</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>55.72158117797974</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>395.201098</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.135297405061514</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>350.313787</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.960782497483251</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>265.698204</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.275317605484183</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>167.141626</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.543133477940595</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>25.55209803635019</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>446.875144</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.414495658536076</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>365.193344</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.044066615946748</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>337.79161</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.621356790269637</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>159.262408</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.47038867243181</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-17.97021641762716</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>168.937361</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.9127796212783806</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>284.954028</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.594949703449017</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>273.840633</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.314400229674993</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>147.535627</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.362121277991255</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-11.50784709460686</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>238.814415</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.290329918670376</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>270.486603</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.513972377473401</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>274.447253</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.317311928565659</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>143.791647</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.327555018125266</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-11.67566735504885</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>306.987692</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.658674597390474</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>338.47376</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.894511289860671</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>364.03116</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.747303294879742</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>130.270167</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.202718082176681</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-22.67316983663427</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>2324.762585</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>12.56084444161792</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>2120.074316</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>11.86651729518306</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>2569.156635</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>12.33162527459916</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1192.894553</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>11.01338765477417</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-9.55641036456062</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,471 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>16.822808</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>39.43542029875339</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>16.79461</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>38.83242353060432</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>17.110471</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>37.10401204331417</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>9.761136</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>36.28222172116953</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>8.515725444921053</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>2.250074</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>5.274542388719958</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>2.32771</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>5.382120845701268</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>5.318414</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>11.53296698304393</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>6.438055</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>23.93030267820099</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>158.6728804413553</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>9.766976</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>22.89539318333997</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>12.684213</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>29.32838162770062</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>10.859812</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>23.54947419250632</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>3.881642</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>14.42809481255091</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-36.08921464478988</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>5.947119</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>12.89631214704859</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>1.981525</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>7.365344504578202</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>31.19128659853059</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>5.348472</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>12.53769532863444</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>2.276617</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>5.263983835347996</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>1.833049</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3.974962008467505</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>1.138251</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>4.230888203621273</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-23.06151693557654</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.033122</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>2.421807363544106</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>1.019802</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>2.357981708497985</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>1.005938</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>2.181373947381541</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>1.128982</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>4.196435255405664</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>12.23176776302317</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>1.055472</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>3.923197988890458</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>3.416102</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>8.007903208157167</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>3.486025</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>8.060371704866913</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>1.088013</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>2.359353372287787</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.817163493122308</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-52.66484056463927</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.8588758908643523</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>0.788479</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.823117683172599</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>0.5270820000000001</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.14297595173237</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.266626270222476</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-30.38793103448276</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.8835341516090858</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.4896467279564981</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.4623583437198938</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.185937458067502</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>73.15116815456</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>3.278281</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>7.684828186377538</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>3.659713</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>8.461972336151808</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>2.211767</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>4.796211010497891</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>1.373787614170692</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-55.21146388754241</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1764,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>11952.220787</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>64.72782259830247</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>11203.475826</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>62.86046082930176</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>13351.641388</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>64.2283480954665</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>6606.978526</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>61.15075592661514</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-15.59818270567067</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1688.510018</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>9.144206658183155</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1909.560018</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>10.71415912141495</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>2340.305532</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>11.25808834965707</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1555.965828</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>14.40121020580742</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>31.36727121414273</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>463.084353</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.507855433998993</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>504.654375</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.831514707105796</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>460.566989</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>2.215567062590499</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>310.75242</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>2.876162729187747</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>32.76562127681046</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>292.800417</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.585674644573062</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>285.762474</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.603356055062314</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>380.411977</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.829979713235884</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>245.340094</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.270740270786044</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>40.36549951450228</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>222.798508</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.206575962575588</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>230.278793</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.292048224320004</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>214.020913</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.029552045355875</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>170.184195</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.575136369833643</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>55.72158117797974</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>395.201098</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.140230423941076</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>350.18548</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.964820649449244</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>265.698204</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.27814672660322</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>167.141626</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.546975934079734</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>25.55209803635019</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>446.422191</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.417620699780125</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>364.63817</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.045911800778787</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>337.572084</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.623897518544112</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>159.262408</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.474049991470034</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-17.87736102111125</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>168.937361</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.9148883481910685</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>284.954028</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.598820026341864</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>273.840633</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.317316050355778</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>147.535627</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.365513007444143</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-11.50784709460686</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>238.814415</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.293310871972046</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>270.486603</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.517646199876077</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>274.447253</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.320234208460046</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>143.791647</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.330860676386434</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-11.67566735504885</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>290.164884</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.571401789719049</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>321.67915</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.8048773364826</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>346.920689</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.668869176986547</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>120.509031</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.115368895575233</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-24.43240415733853</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>2306.398744</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>12.49041256876337</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>2097.095833</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>11.76638504986662</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>2542.344511</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>12.23000105274447</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1176.948823</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>10.89322599281443</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-9.857652403693884</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2222,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>17388.294174</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>68.84372041081218</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>15679.726049</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>64.18319943263702</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>17632.327067</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>68.15810948241761</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>9874.301597</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>71.21185669504101</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-6.801784383924625</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>968.18326</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>3.833230389990334</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>1340.606904</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>5.487623955374508</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1741.239048</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>6.730794024956628</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>768.246604</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>5.540469524155645</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-21.69123166591488</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>150.570288</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.5961377640336365</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>86.679376</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.3548123008730337</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>114.920551</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.4442276658704494</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>159.014702</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>1.146788161166661</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>67.66992761905051</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>513.036058</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>2.031211951223411</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>772.533589</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>3.162279574033765</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>424.232122</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.639877669428575</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>154.266948</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>1.112548131717487</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-44.60144893472982</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>261.080102</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.033668131390927</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>129.678173</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.530823052246492</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>208.575958</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.806254496456712</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>119.661087</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.8629762921162711</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>45.44822363155292</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>50.997439</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.201909019772226</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>126.730652</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.5187577057229822</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>152.316382</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.5887819912183656</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>108.516613</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.7826041586915916</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>12.33960037469926</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>310.950927</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.231116661913847</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>315.363866</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.290906603984725</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>199.048054</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.769424194846361</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>101.667858</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.7332120518363967</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-15.57305953726102</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>172.13345</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.6815106178079156</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>193.267639</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.7911193970511379</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>147.370152</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.5696622411942086</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>96.172381</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.6935795657561871</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>19.08446116024027</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>129.014783</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.510795225847644</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>275.089747</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.126049016315608</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>192.737972</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.745032447905371</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>92.806624</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.6693062738377844</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-25.65070933934442</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>124.119535</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.491413963874431</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>171.971514</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.70394609863088</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>206.452034</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.7980444261707957</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>87.29137900000001</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.6295312241575755</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-27.35896998860247</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>5189.252881</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>20.54528586333345</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>5337.994808</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>21.85048286312984</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>4850.522648</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>18.74979135953491</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>2304.146253</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>16.61712792152339</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-20.84696377725854</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
